--- a/reports/Student #2/D04/Comparativa rendimiento.xlsx
+++ b/reports/Student #2/D04/Comparativa rendimiento.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manukudasai\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace-25\Projects\Acme-ANS-D04\reports\Student #2\D04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF4FB0F5-C8FB-47F5-857C-DC2D5A3EFAF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06FFD503-6D7D-49B9-8CFB-0CDB5235893E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{C945E1EE-F701-46B3-BAE1-9C797EF283CF}"/>
   </bookViews>
@@ -186,14 +186,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
   </cellXfs>
@@ -533,7 +532,7 @@
   <dimension ref="A1:M835"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -550,8 +549,8 @@
       <c r="B1" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
@@ -560,14 +559,14 @@
       <c r="B2">
         <v>69.361999999999995</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="G2" s="4" t="s">
+      <c r="E2" s="3"/>
+      <c r="G2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="4"/>
+      <c r="H2" s="3"/>
       <c r="K2" t="s">
         <v>19</v>
       </c>
@@ -579,10 +578,6 @@
       <c r="B3">
         <v>13.6822</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -591,23 +586,23 @@
       <c r="B4">
         <v>11.882999999999999</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4">
         <v>5.5013647482014401</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4">
         <v>5.6470440047961601</v>
       </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3" t="s">
+      <c r="K4" s="2"/>
+      <c r="L4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="2" t="s">
         <v>28</v>
       </c>
     </row>
@@ -618,26 +613,26 @@
       <c r="B5">
         <v>12.0656</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5">
         <v>0.27318046270359408</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5">
         <v>0.30606812527445121</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="1">
-        <v>5.6470440047961601</v>
-      </c>
-      <c r="M5" s="1">
-        <v>5.5013647482014401</v>
+      <c r="L5">
+        <v>5.6470440049999997</v>
+      </c>
+      <c r="M5">
+        <v>5.5013647480000003</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -647,26 +642,26 @@
       <c r="B6">
         <v>3.0505</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6">
         <v>3.1427499999999999</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6">
         <v>3.2591000000000001</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6">
+        <v>78.127199559999994</v>
+      </c>
+      <c r="M6">
         <v>62.239389379999999</v>
-      </c>
-      <c r="M6" s="1">
-        <v>78.127199559999994</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -676,25 +671,25 @@
       <c r="B7">
         <v>2.4657</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7">
         <v>3.7336999999999998</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7">
         <v>1.0859000000000001</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7">
         <v>834</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7">
         <v>834</v>
       </c>
     </row>
@@ -705,25 +700,24 @@
       <c r="B8">
         <v>102.8182</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8">
         <v>7.8891944696058864</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8">
         <v>8.8389591896173112</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="K8" t="s">
         <v>22</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8">
         <v>0</v>
       </c>
-      <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -732,25 +726,24 @@
       <c r="B9">
         <v>10.0748</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9">
         <v>62.239389379260103</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9">
         <v>78.12719955572031</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="K9" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="1">
-        <v>0.35509852536342196</v>
-      </c>
-      <c r="M9" s="1"/>
+      <c r="L9">
+        <v>0.355098525</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -759,25 +752,24 @@
       <c r="B10">
         <v>70.392399999999995</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10">
         <v>45.388398021250914</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10">
         <v>66.123232551389336</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="K10" t="s">
         <v>24</v>
       </c>
-      <c r="L10" s="1">
-        <v>0.3612578906736833</v>
-      </c>
-      <c r="M10" s="1"/>
+      <c r="L10">
+        <v>0.361257891</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -786,25 +778,24 @@
       <c r="B11">
         <v>41.622900000000001</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11">
         <v>5.2986358020416366</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11">
         <v>6.5909348578012699</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="K11" t="s">
         <v>25</v>
       </c>
-      <c r="L11" s="1">
-        <v>1.6448536269514715</v>
-      </c>
-      <c r="M11" s="1"/>
+      <c r="L11">
+        <v>1.644853627</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -813,25 +804,24 @@
       <c r="B12">
         <v>14.8794</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12">
         <v>102.2677</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12">
         <v>115.01439999999999</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="K12" t="s">
         <v>26</v>
       </c>
-      <c r="L12" s="1">
-        <v>0.7225157813473666</v>
-      </c>
-      <c r="M12" s="1"/>
+      <c r="L12">
+        <v>0.72251578100000002</v>
+      </c>
     </row>
     <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13">
@@ -840,25 +830,25 @@
       <c r="B13">
         <v>15.9109</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13">
         <v>0.55049999999999999</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13">
         <v>0.52139999999999997</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L13" s="2">
-        <v>1.9599639845400536</v>
-      </c>
-      <c r="M13" s="2"/>
+      <c r="L13" s="1">
+        <v>1.9599639849999999</v>
+      </c>
+      <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -867,16 +857,16 @@
       <c r="B14">
         <v>27.934899999999999</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14">
         <v>102.8182</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14">
         <v>115.53579999999999</v>
       </c>
     </row>
@@ -887,16 +877,16 @@
       <c r="B15">
         <v>26.772500000000001</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15">
         <v>4588.1382000000012</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15">
         <v>4709.6346999999978</v>
       </c>
     </row>
@@ -907,16 +897,16 @@
       <c r="B16">
         <v>24.877199999999998</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16">
         <v>834</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16">
         <v>834</v>
       </c>
     </row>
@@ -927,16 +917,16 @@
       <c r="B17">
         <v>25.107500000000002</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="1">
         <v>0.53620296156601122</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="1">
         <v>0.60075538927242067</v>
       </c>
     </row>
